--- a/Project/plan/slot_mac.xlsx
+++ b/Project/plan/slot_mac.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="600" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
@@ -34,7 +34,7 @@
     <t>PXE(Management)</t>
   </si>
   <si>
-    <t>External </t>
+    <t>External</t>
   </si>
   <si>
     <t>Storage</t>
@@ -419,11 +419,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="7">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
+  <cellXfs count="4">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -433,14 +429,6 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -468,294 +456,294 @@
   </sheetPr>
   <dimension ref="A1:I14"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A10" colorId="64" zoomScale="280" zoomScaleNormal="280" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B19" activeCellId="0" sqref="B19"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="60" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="14.9591836734694"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="15.9132653061224"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="4.0765306122449"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="12.7857142857143"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="5.12755102040816"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="15.265306122449"/>
-    <col collapsed="false" hidden="false" max="1025" min="7" style="1" width="11.5204081632653"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="14.9591836734694"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="15.9132653061224"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="4.0765306122449"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="12.7857142857143"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="5.12755102040816"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="15.265306122449"/>
+    <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="11.5204081632653"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="0" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="0" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="0" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="0" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="0" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" s="0" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="0" t="s">
         <v>9</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="E2" s="1" t="n">
+      <c r="E2" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="F2" s="0" t="s">
         <v>11</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="G2" s="0" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="3" s="3" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="3" t="s">
+    <row r="3" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C3" s="1"/>
-      <c r="D3" s="3" t="s">
+      <c r="C3" s="0"/>
+      <c r="D3" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="E3" s="3" t="n">
+      <c r="E3" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="F3" s="1" t="s">
+      <c r="F3" s="0" t="s">
         <v>16</v>
       </c>
-      <c r="G3" s="3" t="s">
+      <c r="G3" s="2" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="3" t="s">
+      <c r="A4" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B4" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="D4" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="E4" s="3" t="n">
+      <c r="E4" s="2" t="n">
         <v>12</v>
       </c>
-      <c r="F4" s="3" t="s">
+      <c r="F4" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="G4" s="1" t="s">
+      <c r="G4" s="0" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="1" t="s">
+      <c r="A5" s="0" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="3" t="s">
+      <c r="A6" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="B6" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="D6" s="3" t="s">
+      <c r="D6" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="E6" s="3" t="n">
+      <c r="E6" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="F6" s="3" t="s">
+      <c r="F6" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="H6" s="1" t="s">
+      <c r="H6" s="0" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="7" s="3" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="3" t="s">
+    <row r="7" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="B7" s="3" t="s">
+      <c r="B7" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="C7" s="1"/>
-      <c r="D7" s="3" t="s">
+      <c r="C7" s="0"/>
+      <c r="D7" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="E7" s="3" t="n">
+      <c r="E7" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="F7" s="3" t="s">
+      <c r="F7" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="H7" s="3" t="s">
+      <c r="H7" s="2" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="8" s="3" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="3" t="s">
+    <row r="8" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="B8" s="3" t="s">
+      <c r="B8" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="C8" s="1"/>
-      <c r="D8" s="3" t="s">
+      <c r="C8" s="0"/>
+      <c r="D8" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="E8" s="3" t="n">
+      <c r="E8" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="F8" s="3" t="s">
+      <c r="F8" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="H8" s="3" t="s">
+      <c r="H8" s="2" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="3" t="s">
+      <c r="A9" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="B9" s="1" t="s">
+      <c r="B9" s="0" t="s">
         <v>40</v>
       </c>
-      <c r="D9" s="3" t="s">
+      <c r="D9" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="E9" s="1" t="n">
+      <c r="E9" s="0" t="n">
         <v>7</v>
       </c>
-      <c r="F9" s="3" t="s">
+      <c r="F9" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="H9" s="1" t="s">
+      <c r="H9" s="0" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="10" s="3" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="3" t="s">
+    <row r="10" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="B10" s="3" t="s">
+      <c r="B10" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="C10" s="1"/>
-      <c r="D10" s="3" t="s">
+      <c r="C10" s="0"/>
+      <c r="D10" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="E10" s="3" t="n">
+      <c r="E10" s="2" t="n">
         <v>8</v>
       </c>
-      <c r="F10" s="3" t="s">
+      <c r="F10" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="H10" s="3" t="s">
+      <c r="H10" s="2" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="3" t="s">
+      <c r="A11" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="B11" s="1" t="s">
+      <c r="B11" s="0" t="s">
         <v>50</v>
       </c>
-      <c r="D11" s="3" t="s">
+      <c r="D11" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="E11" s="1" t="n">
+      <c r="E11" s="0" t="n">
         <v>9</v>
       </c>
-      <c r="F11" s="3" t="s">
+      <c r="F11" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="H11" s="1" t="s">
+      <c r="H11" s="0" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="3" t="s">
+      <c r="A12" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="B12" s="1" t="s">
+      <c r="B12" s="0" t="s">
         <v>55</v>
       </c>
-      <c r="D12" s="3" t="s">
+      <c r="D12" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="E12" s="1" t="n">
+      <c r="E12" s="0" t="n">
         <v>10</v>
       </c>
-      <c r="F12" s="1" t="s">
+      <c r="F12" s="0" t="s">
         <v>57</v>
       </c>
-      <c r="H12" s="1" t="s">
+      <c r="H12" s="0" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="13" s="3" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="3" t="s">
+    <row r="13" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="B13" s="3" t="s">
+      <c r="B13" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="C13" s="1"/>
-      <c r="D13" s="3" t="s">
+      <c r="C13" s="0"/>
+      <c r="D13" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="E13" s="3" t="n">
+      <c r="E13" s="2" t="n">
         <v>11</v>
       </c>
-      <c r="F13" s="3" t="s">
+      <c r="F13" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="H13" s="3" t="s">
+      <c r="H13" s="2" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="14" s="3" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="3" t="s">
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="B14" s="3" t="s">
+      <c r="B14" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="D14" s="3" t="s">
+      <c r="D14" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="E14" s="3" t="n">
+      <c r="E14" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="F14" s="3" t="s">
+      <c r="F14" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="G14" s="2"/>
+      <c r="G14" s="1"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -775,8 +763,8 @@
   </sheetPr>
   <dimension ref="A1:C5"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="280" zoomScaleNormal="280" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B9" activeCellId="0" sqref="B9"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="60" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
@@ -804,7 +792,7 @@
       <c r="B2" s="0" t="s">
         <v>72</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="2" t="s">
         <v>73</v>
       </c>
     </row>
@@ -812,10 +800,10 @@
       <c r="A3" s="0" t="s">
         <v>71</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C3" s="2" t="s">
         <v>75</v>
       </c>
     </row>
@@ -823,15 +811,15 @@
       <c r="A4" s="0" t="s">
         <v>71</v>
       </c>
-      <c r="B4" s="5" t="s">
+      <c r="B4" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="C4" s="2" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B5" s="5" t="s">
+      <c r="B5" s="1" t="s">
         <v>78</v>
       </c>
     </row>
@@ -853,8 +841,8 @@
   </sheetPr>
   <dimension ref="A1:C8"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="280" zoomScaleNormal="280" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C9" activeCellId="0" sqref="C9"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="60" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
@@ -863,7 +851,7 @@
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="3" t="s">
         <v>79</v>
       </c>
       <c r="C1" s="0" t="s">
